--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem5/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem5/67/word_level_predictions_67.xlsx
@@ -866,156 +866,156 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>Disabled</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9342,208 +9342,208 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="n">
+      <c r="A172" t="n">
         <v>6</v>
       </c>
-      <c r="B172" s="2" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C172" s="2" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>Calibrate</t>
         </is>
       </c>
-      <c r="D172" s="2" t="n">
+      <c r="D172" t="n">
         <v>32</v>
       </c>
-      <c r="E172" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F172" s="2" t="inlineStr">
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G172" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L172" s="2" t="inlineStr">
+      <c r="G172" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I172" t="b">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K172" t="b">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="2" t="n">
+      <c r="A173" t="n">
         <v>6</v>
       </c>
-      <c r="B173" s="2" t="inlineStr">
+      <c r="B173" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C173" s="2" t="inlineStr">
+      <c r="C173" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D173" s="2" t="n">
+      <c r="D173" t="n">
         <v>33</v>
       </c>
-      <c r="E173" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F173" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G173" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H173" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I173" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J173" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K173" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L173" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G173" t="b">
+        <v>1</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I173" t="b">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K173" t="b">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" t="n">
         <v>6</v>
       </c>
-      <c r="B174" s="2" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C174" s="2" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>Before</t>
         </is>
       </c>
-      <c r="D174" s="2" t="n">
+      <c r="D174" t="n">
         <v>34</v>
       </c>
-      <c r="E174" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F174" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G174" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L174" s="2" t="inlineStr">
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I174" t="b">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
+      <c r="A175" t="n">
         <v>6</v>
       </c>
-      <c r="B175" s="2" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C175" s="2" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D175" s="2" t="n">
+      <c r="D175" t="n">
         <v>35</v>
       </c>
-      <c r="E175" s="2" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F175" s="2" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G175" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L175" s="2" t="inlineStr">
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I175" t="b">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem5/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem5/67/word_level_predictions_67.xlsx
@@ -866,156 +866,156 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" t="n">
         <v>0</v>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" t="n">
         <v>7</v>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="b">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="b">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>0</v>
       </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Disabled</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" t="n">
         <v>9</v>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9342,208 +9342,208 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
+      <c r="A172" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B172" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C172" s="2" t="inlineStr">
         <is>
           <t>Calibrate</t>
         </is>
       </c>
-      <c r="D172" t="n">
+      <c r="D172" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
+      <c r="E172" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F172" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G172" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I172" t="b">
-        <v>1</v>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K172" t="b">
-        <v>1</v>
-      </c>
-      <c r="L172" t="inlineStr">
+      <c r="G172" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J172" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L172" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n">
+      <c r="A173" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B173" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="C173" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D173" t="n">
+      <c r="D173" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G173" t="b">
-        <v>1</v>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I173" t="b">
-        <v>1</v>
-      </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K173" t="b">
-        <v>1</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E173" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F173" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G173" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H173" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I173" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J173" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K173" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L173" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C174" s="2" t="inlineStr">
         <is>
           <t>Before</t>
         </is>
       </c>
-      <c r="D174" t="n">
+      <c r="D174" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G174" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I174" t="b">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K174" t="b">
-        <v>1</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="E174" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F174" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G174" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
+      <c r="A175" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B175" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C175" s="2" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D175" t="n">
+      <c r="D175" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="E175" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="F175" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G175" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I175" t="b">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K175" t="b">
-        <v>1</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="G175" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J175" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
